--- a/Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx
+++ b/Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5eba5648f751a5dd/Documentos/GitHub/openrta-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{404A8568-BA0C-4ADB-9DA2-041EA4D60A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA2E4993-8733-4894-AE4E-E6EFBDC601D7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{404A8568-BA0C-4ADB-9DA2-041EA4D60A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E4C3EA-86DC-49BB-BC91-7B434623E3F0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6FFACD41-BA9C-4218-9226-0E6BD2055ACF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FFACD41-BA9C-4218-9226-0E6BD2055ACF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico Precio" sheetId="3" r:id="rId1"/>
-    <sheet name="Gráfico % sobre 2026" sheetId="4" r:id="rId2"/>
+    <sheet name="Precio Venta" sheetId="3" r:id="rId1"/>
+    <sheet name="% Precio Venta base 2016" sheetId="4" r:id="rId2"/>
     <sheet name="Histórico Precio Venta Cádiz m2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -176,7 +176,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx]Gráfico Precio!TablaDinámica1</c:name>
+    <c:name>[Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx]Precio Venta!TablaDinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -280,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gráfico Precio'!$B$1</c:f>
+              <c:f>'Precio Venta'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -301,7 +301,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Precio'!$A$2:$A$11</c:f>
+              <c:f>'Precio Venta'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -336,7 +336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Precio'!$B$2:$B$11</c:f>
+              <c:f>'Precio Venta'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -444,6 +444,7 @@
         <c:axId val="1042809551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -609,7 +610,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx]Gráfico % sobre 2026!TablaDinámica2</c:name>
+    <c:name>[Histórico Precios Venta Cádiz (m2) - Fuente Idealista.xlsx]% Precio Venta base 2016!TablaDinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -713,7 +714,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gráfico % sobre 2026'!$B$1</c:f>
+              <c:f>'% Precio Venta base 2016'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,7 +735,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico % sobre 2026'!$A$2:$A$11</c:f>
+              <c:f>'% Precio Venta base 2016'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -769,7 +770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico % sobre 2026'!$B$2:$B$11</c:f>
+              <c:f>'% Precio Venta base 2016'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2396,7 +2397,165 @@
       <fieldGroup par="4"/>
     </cacheField>
     <cacheField name="Precio m2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1905" maxValue="2885"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1905" maxValue="2885" count="157">
+        <n v="2885"/>
+        <n v="2825"/>
+        <n v="2827"/>
+        <n v="2807"/>
+        <n v="2814"/>
+        <n v="2815"/>
+        <n v="2786"/>
+        <n v="2780"/>
+        <n v="2753"/>
+        <n v="2683"/>
+        <n v="2649"/>
+        <n v="2609"/>
+        <n v="2596"/>
+        <n v="2589"/>
+        <n v="2548"/>
+        <n v="2537"/>
+        <n v="2532"/>
+        <n v="2543"/>
+        <n v="2535"/>
+        <n v="2490"/>
+        <n v="2493"/>
+        <n v="2474"/>
+        <n v="2459"/>
+        <n v="2456"/>
+        <n v="2449"/>
+        <n v="2420"/>
+        <n v="2392"/>
+        <n v="2397"/>
+        <n v="2382"/>
+        <n v="2395"/>
+        <n v="2389"/>
+        <n v="2358"/>
+        <n v="2349"/>
+        <n v="2354"/>
+        <n v="2339"/>
+        <n v="2326"/>
+        <n v="2312"/>
+        <n v="2321"/>
+        <n v="2315"/>
+        <n v="2330"/>
+        <n v="2337"/>
+        <n v="2343"/>
+        <n v="2350"/>
+        <n v="2363"/>
+        <n v="2366"/>
+        <n v="2386"/>
+        <n v="2381"/>
+        <n v="2361"/>
+        <n v="2304"/>
+        <n v="2288"/>
+        <n v="2271"/>
+        <n v="2269"/>
+        <n v="2257"/>
+        <n v="2234"/>
+        <n v="2223"/>
+        <n v="2207"/>
+        <n v="2180"/>
+        <n v="2167"/>
+        <n v="2168"/>
+        <n v="2140"/>
+        <n v="2119"/>
+        <n v="2103"/>
+        <n v="2077"/>
+        <n v="2056"/>
+        <n v="2050"/>
+        <n v="2018"/>
+        <n v="2013"/>
+        <n v="2009"/>
+        <n v="1994"/>
+        <n v="1986"/>
+        <n v="1997"/>
+        <n v="1987"/>
+        <n v="1977"/>
+        <n v="1982"/>
+        <n v="1981"/>
+        <n v="1974"/>
+        <n v="1959"/>
+        <n v="1944"/>
+        <n v="1929"/>
+        <n v="1937"/>
+        <n v="1940"/>
+        <n v="1943"/>
+        <n v="1942"/>
+        <n v="1923"/>
+        <n v="1920"/>
+        <n v="1905"/>
+        <n v="1911"/>
+        <n v="1931"/>
+        <n v="1936"/>
+        <n v="1934"/>
+        <n v="1939"/>
+        <n v="1945"/>
+        <n v="1949"/>
+        <n v="1954"/>
+        <n v="1966"/>
+        <n v="1930"/>
+        <n v="1950"/>
+        <n v="1996"/>
+        <n v="2036"/>
+        <n v="2035"/>
+        <n v="2066"/>
+        <n v="2067"/>
+        <n v="2037"/>
+        <n v="2064"/>
+        <n v="2039"/>
+        <n v="2040"/>
+        <n v="2096"/>
+        <n v="2110"/>
+        <n v="2118"/>
+        <n v="2142"/>
+        <n v="2141"/>
+        <n v="2131"/>
+        <n v="2171"/>
+        <n v="2202"/>
+        <n v="2218"/>
+        <n v="2252"/>
+        <n v="2272"/>
+        <n v="2334"/>
+        <n v="2391"/>
+        <n v="2379"/>
+        <n v="2390"/>
+        <n v="2454"/>
+        <n v="2488"/>
+        <n v="2518"/>
+        <n v="2553"/>
+        <n v="2556"/>
+        <n v="2557"/>
+        <n v="2599"/>
+        <n v="2604"/>
+        <n v="2607"/>
+        <n v="2631"/>
+        <n v="2594"/>
+        <n v="2584"/>
+        <n v="2562"/>
+        <n v="2559"/>
+        <n v="2610"/>
+        <n v="2534"/>
+        <n v="2561"/>
+        <n v="2544"/>
+        <n v="2618"/>
+        <n v="2617"/>
+        <n v="2616"/>
+        <n v="2554"/>
+        <n v="2539"/>
+        <n v="2526"/>
+        <n v="2524"/>
+        <n v="2531"/>
+        <n v="2628"/>
+        <n v="2657"/>
+        <n v="2674"/>
+        <n v="2641"/>
+        <n v="2574"/>
+        <n v="2480"/>
+        <n v="2620"/>
+        <n v="2648"/>
+        <n v="2605"/>
+        <n v="2656"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Meses (Mes)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -2471,773 +2630,773 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="191">
   <r>
     <x v="0"/>
-    <n v="2885"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="2825"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="2827"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="2807"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="2814"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="2815"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="2786"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="2780"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="2753"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="2683"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="2649"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="2609"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="2596"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="2596"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="2589"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="2548"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="2537"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="2532"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="18"/>
-    <n v="2543"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="19"/>
-    <n v="2535"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="20"/>
-    <n v="2490"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="21"/>
-    <n v="2493"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="22"/>
-    <n v="2474"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="23"/>
-    <n v="2459"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="24"/>
-    <n v="2456"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="25"/>
-    <n v="2449"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="26"/>
-    <n v="2420"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="27"/>
-    <n v="2392"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="28"/>
-    <n v="2392"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="29"/>
-    <n v="2397"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="30"/>
-    <n v="2382"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="31"/>
-    <n v="2395"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="32"/>
-    <n v="2389"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="33"/>
-    <n v="2358"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="34"/>
-    <n v="2349"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="35"/>
-    <n v="2354"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="36"/>
-    <n v="2339"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="37"/>
-    <n v="2326"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="38"/>
-    <n v="2312"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="39"/>
-    <n v="2321"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="40"/>
-    <n v="2312"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="41"/>
-    <n v="2315"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="42"/>
-    <n v="2312"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="43"/>
-    <n v="2330"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="44"/>
-    <n v="2337"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="45"/>
-    <n v="2343"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="46"/>
-    <n v="2350"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="47"/>
-    <n v="2363"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="48"/>
-    <n v="2366"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="49"/>
-    <n v="2386"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="50"/>
-    <n v="2386"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="51"/>
-    <n v="2381"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="52"/>
-    <n v="2361"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="53"/>
-    <n v="2315"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="54"/>
-    <n v="2304"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="55"/>
-    <n v="2288"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="56"/>
-    <n v="2271"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="57"/>
-    <n v="2269"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="58"/>
-    <n v="2257"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="59"/>
-    <n v="2234"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="60"/>
-    <n v="2223"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="61"/>
-    <n v="2207"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="62"/>
-    <n v="2180"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="63"/>
-    <n v="2167"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="64"/>
-    <n v="2168"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="65"/>
-    <n v="2167"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="66"/>
-    <n v="2140"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="67"/>
-    <n v="2119"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="68"/>
-    <n v="2103"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="69"/>
-    <n v="2077"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="70"/>
-    <n v="2056"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="71"/>
-    <n v="2050"/>
+    <x v="64"/>
   </r>
   <r>
     <x v="72"/>
-    <n v="2018"/>
+    <x v="65"/>
   </r>
   <r>
     <x v="73"/>
-    <n v="2013"/>
+    <x v="66"/>
   </r>
   <r>
     <x v="74"/>
-    <n v="2009"/>
+    <x v="67"/>
   </r>
   <r>
     <x v="75"/>
-    <n v="1994"/>
+    <x v="68"/>
   </r>
   <r>
     <x v="76"/>
-    <n v="1986"/>
+    <x v="69"/>
   </r>
   <r>
     <x v="77"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="78"/>
-    <n v="1987"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="79"/>
-    <n v="1977"/>
+    <x v="72"/>
   </r>
   <r>
     <x v="80"/>
-    <n v="1982"/>
+    <x v="73"/>
   </r>
   <r>
     <x v="81"/>
-    <n v="1981"/>
+    <x v="74"/>
   </r>
   <r>
     <x v="82"/>
-    <n v="1987"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="83"/>
-    <n v="1977"/>
+    <x v="72"/>
   </r>
   <r>
     <x v="84"/>
-    <n v="1974"/>
+    <x v="75"/>
   </r>
   <r>
     <x v="85"/>
-    <n v="1987"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="86"/>
-    <n v="1982"/>
+    <x v="73"/>
   </r>
   <r>
     <x v="87"/>
-    <n v="1959"/>
+    <x v="76"/>
   </r>
   <r>
     <x v="88"/>
-    <n v="1944"/>
+    <x v="77"/>
   </r>
   <r>
     <x v="89"/>
-    <n v="1929"/>
+    <x v="78"/>
   </r>
   <r>
     <x v="90"/>
-    <n v="1937"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="91"/>
-    <n v="1940"/>
+    <x v="80"/>
   </r>
   <r>
     <x v="92"/>
-    <n v="1937"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="93"/>
-    <n v="1943"/>
+    <x v="81"/>
   </r>
   <r>
     <x v="94"/>
-    <n v="1942"/>
+    <x v="82"/>
   </r>
   <r>
     <x v="95"/>
-    <n v="1923"/>
+    <x v="83"/>
   </r>
   <r>
     <x v="96"/>
-    <n v="1920"/>
+    <x v="84"/>
   </r>
   <r>
     <x v="97"/>
-    <n v="1905"/>
+    <x v="85"/>
   </r>
   <r>
     <x v="98"/>
-    <n v="1911"/>
+    <x v="86"/>
   </r>
   <r>
     <x v="99"/>
-    <n v="1931"/>
+    <x v="87"/>
   </r>
   <r>
     <x v="100"/>
-    <n v="1936"/>
+    <x v="88"/>
   </r>
   <r>
     <x v="101"/>
-    <n v="1934"/>
+    <x v="89"/>
   </r>
   <r>
     <x v="102"/>
-    <n v="1939"/>
+    <x v="90"/>
   </r>
   <r>
     <x v="103"/>
-    <n v="1945"/>
+    <x v="91"/>
   </r>
   <r>
     <x v="104"/>
-    <n v="1949"/>
+    <x v="92"/>
   </r>
   <r>
     <x v="105"/>
-    <n v="1954"/>
+    <x v="93"/>
   </r>
   <r>
     <x v="106"/>
-    <n v="1966"/>
+    <x v="94"/>
   </r>
   <r>
     <x v="107"/>
-    <n v="1940"/>
+    <x v="80"/>
   </r>
   <r>
     <x v="108"/>
-    <n v="1930"/>
+    <x v="95"/>
   </r>
   <r>
     <x v="109"/>
-    <n v="1937"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="110"/>
-    <n v="1934"/>
+    <x v="89"/>
   </r>
   <r>
     <x v="111"/>
-    <n v="1929"/>
+    <x v="78"/>
   </r>
   <r>
     <x v="112"/>
-    <n v="1950"/>
+    <x v="96"/>
   </r>
   <r>
     <x v="113"/>
-    <n v="1996"/>
+    <x v="97"/>
   </r>
   <r>
     <x v="114"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="115"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="116"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="117"/>
-    <n v="2036"/>
+    <x v="98"/>
   </r>
   <r>
     <x v="118"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="119"/>
-    <n v="1997"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="120"/>
-    <n v="1994"/>
+    <x v="68"/>
   </r>
   <r>
     <x v="121"/>
-    <n v="1996"/>
+    <x v="97"/>
   </r>
   <r>
     <x v="122"/>
-    <n v="2035"/>
+    <x v="99"/>
   </r>
   <r>
     <x v="123"/>
-    <n v="2066"/>
+    <x v="100"/>
   </r>
   <r>
     <x v="124"/>
-    <n v="2077"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="125"/>
-    <n v="2067"/>
+    <x v="101"/>
   </r>
   <r>
     <x v="126"/>
-    <n v="2037"/>
+    <x v="102"/>
   </r>
   <r>
     <x v="127"/>
-    <n v="2064"/>
+    <x v="103"/>
   </r>
   <r>
     <x v="128"/>
-    <n v="2039"/>
+    <x v="104"/>
   </r>
   <r>
     <x v="129"/>
-    <n v="2040"/>
+    <x v="105"/>
   </r>
   <r>
     <x v="130"/>
-    <n v="2056"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="131"/>
-    <n v="2096"/>
+    <x v="106"/>
   </r>
   <r>
     <x v="132"/>
-    <n v="2110"/>
+    <x v="107"/>
   </r>
   <r>
     <x v="133"/>
-    <n v="2118"/>
+    <x v="108"/>
   </r>
   <r>
     <x v="134"/>
-    <n v="2142"/>
+    <x v="109"/>
   </r>
   <r>
     <x v="135"/>
-    <n v="2141"/>
+    <x v="110"/>
   </r>
   <r>
     <x v="136"/>
-    <n v="2131"/>
+    <x v="111"/>
   </r>
   <r>
     <x v="137"/>
-    <n v="2171"/>
+    <x v="112"/>
   </r>
   <r>
     <x v="138"/>
-    <n v="2202"/>
+    <x v="113"/>
   </r>
   <r>
     <x v="139"/>
-    <n v="2218"/>
+    <x v="114"/>
   </r>
   <r>
     <x v="140"/>
-    <n v="2252"/>
+    <x v="115"/>
   </r>
   <r>
     <x v="141"/>
-    <n v="2272"/>
+    <x v="116"/>
   </r>
   <r>
     <x v="142"/>
-    <n v="2312"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="143"/>
-    <n v="2334"/>
+    <x v="117"/>
   </r>
   <r>
     <x v="144"/>
-    <n v="2330"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="145"/>
-    <n v="2391"/>
+    <x v="118"/>
   </r>
   <r>
     <x v="146"/>
-    <n v="2379"/>
+    <x v="119"/>
   </r>
   <r>
     <x v="147"/>
-    <n v="2390"/>
+    <x v="120"/>
   </r>
   <r>
     <x v="148"/>
-    <n v="2454"/>
+    <x v="121"/>
   </r>
   <r>
     <x v="149"/>
-    <n v="2488"/>
+    <x v="122"/>
   </r>
   <r>
     <x v="150"/>
-    <n v="2518"/>
+    <x v="123"/>
   </r>
   <r>
     <x v="151"/>
-    <n v="2553"/>
+    <x v="124"/>
   </r>
   <r>
     <x v="152"/>
-    <n v="2535"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="153"/>
-    <n v="2556"/>
+    <x v="125"/>
   </r>
   <r>
     <x v="154"/>
-    <n v="2548"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="155"/>
-    <n v="2557"/>
+    <x v="126"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="2556"/>
+    <x v="125"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="2557"/>
+    <x v="126"/>
   </r>
   <r>
     <x v="158"/>
-    <n v="2557"/>
+    <x v="126"/>
   </r>
   <r>
     <x v="159"/>
-    <n v="2599"/>
+    <x v="127"/>
   </r>
   <r>
     <x v="160"/>
-    <n v="2604"/>
+    <x v="128"/>
   </r>
   <r>
     <x v="161"/>
-    <n v="2607"/>
+    <x v="129"/>
   </r>
   <r>
     <x v="162"/>
-    <n v="2631"/>
+    <x v="130"/>
   </r>
   <r>
     <x v="163"/>
-    <n v="2594"/>
+    <x v="131"/>
   </r>
   <r>
     <x v="164"/>
-    <n v="2584"/>
+    <x v="132"/>
   </r>
   <r>
     <x v="165"/>
-    <n v="2562"/>
+    <x v="133"/>
   </r>
   <r>
     <x v="166"/>
-    <n v="2559"/>
+    <x v="134"/>
   </r>
   <r>
     <x v="167"/>
-    <n v="2562"/>
+    <x v="133"/>
   </r>
   <r>
     <x v="168"/>
-    <n v="2609"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="169"/>
-    <n v="2610"/>
+    <x v="135"/>
   </r>
   <r>
     <x v="170"/>
-    <n v="2534"/>
+    <x v="136"/>
   </r>
   <r>
     <x v="171"/>
-    <n v="2561"/>
+    <x v="137"/>
   </r>
   <r>
     <x v="172"/>
-    <n v="2544"/>
+    <x v="138"/>
   </r>
   <r>
     <x v="173"/>
-    <n v="2618"/>
+    <x v="139"/>
   </r>
   <r>
     <x v="174"/>
-    <n v="2617"/>
+    <x v="140"/>
   </r>
   <r>
     <x v="175"/>
-    <n v="2616"/>
+    <x v="141"/>
   </r>
   <r>
     <x v="176"/>
-    <n v="2554"/>
+    <x v="142"/>
   </r>
   <r>
     <x v="177"/>
-    <n v="2539"/>
+    <x v="143"/>
   </r>
   <r>
     <x v="178"/>
-    <n v="2526"/>
+    <x v="144"/>
   </r>
   <r>
     <x v="179"/>
-    <n v="2524"/>
+    <x v="145"/>
   </r>
   <r>
     <x v="180"/>
-    <n v="2531"/>
+    <x v="146"/>
   </r>
   <r>
     <x v="181"/>
-    <n v="2628"/>
+    <x v="147"/>
   </r>
   <r>
     <x v="182"/>
-    <n v="2657"/>
+    <x v="148"/>
   </r>
   <r>
     <x v="183"/>
-    <n v="2674"/>
+    <x v="149"/>
   </r>
   <r>
     <x v="184"/>
-    <n v="2641"/>
+    <x v="150"/>
   </r>
   <r>
     <x v="185"/>
-    <n v="2574"/>
+    <x v="151"/>
   </r>
   <r>
     <x v="186"/>
-    <n v="2480"/>
+    <x v="152"/>
   </r>
   <r>
     <x v="187"/>
-    <n v="2620"/>
+    <x v="153"/>
   </r>
   <r>
     <x v="188"/>
-    <n v="2648"/>
+    <x v="154"/>
   </r>
   <r>
     <x v="189"/>
-    <n v="2605"/>
+    <x v="155"/>
   </r>
   <r>
     <x v="190"/>
-    <n v="2656"/>
+    <x v="156"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBA4859-81C4-4C3F-BE96-04B189239350}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Año">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DCBA4859-81C4-4C3F-BE96-04B189239350}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Año">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -3560,7 +3719,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC0F824B-64DA-4EC6-BBDE-611132855A7C}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC0F824B-64DA-4EC6-BBDE-611132855A7C}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -4220,8 +4379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E0A41-D0B0-4F95-9521-1245385BE3E7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4328,7 +4487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF75D7-C92C-4F05-94EF-2D0D5A72B5A9}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
